--- a/static/bestenlijsten/TM_bestenlijst_lopen.xlsx
+++ b/static/bestenlijsten/TM_bestenlijst_lopen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b50eeb736046b11/Bureaublad/EvE/Atletiek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="8_{ACA3E683-D116-4873-B3C8-907A82C93322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF4501F-8F48-4F76-995B-0EF71068E8BE}"/>
+  <xr:revisionPtr revIDLastSave="747" documentId="8_{ACA3E683-D116-4873-B3C8-907A82C93322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1BD4D7-F9FC-4BF2-91BD-198E3733EFA3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="9" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" xr2:uid="{EC43D62E-7AF6-4284-B9B5-1C106BDF768A}"/>
   </bookViews>
   <sheets>
     <sheet name="100 m" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="961">
   <si>
     <t>Mannen</t>
   </si>
@@ -149,18 +149,18 @@
     <t>Phanos</t>
   </si>
   <si>
+    <t>Jafrailyson Acton</t>
+  </si>
+  <si>
+    <t>U-Track</t>
+  </si>
+  <si>
     <t>Leon Seale</t>
   </si>
   <si>
     <t>CAV Energie</t>
   </si>
   <si>
-    <t>Jafrailyson Acton</t>
-  </si>
-  <si>
-    <t>U-Track</t>
-  </si>
-  <si>
     <t>Rodrigo-Willy Broer</t>
   </si>
   <si>
@@ -1481,6 +1481,9 @@
     <t>EDM</t>
   </si>
   <si>
+    <t>Falco Aarts</t>
+  </si>
+  <si>
     <t>Seb Wals</t>
   </si>
   <si>
@@ -1559,6 +1562,12 @@
     <t>Charlene Robertson</t>
   </si>
   <si>
+    <t>Tess van Randtwijk</t>
+  </si>
+  <si>
+    <t>AV'34</t>
+  </si>
+  <si>
     <t>Charlotte Vervoort</t>
   </si>
   <si>
@@ -1685,15 +1694,15 @@
     <t>Irene van der Rijken</t>
   </si>
   <si>
+    <t>Veerle Bakker</t>
+  </si>
+  <si>
     <t>Elizeba Cerono</t>
   </si>
   <si>
     <t>ARV Achilles</t>
   </si>
   <si>
-    <t>Sofie van Accom</t>
-  </si>
-  <si>
     <t>AV '47</t>
   </si>
   <si>
@@ -1718,9 +1727,6 @@
     <t>Marlin van Hal</t>
   </si>
   <si>
-    <t>Veerle Bakker</t>
-  </si>
-  <si>
     <t>Vera de Vries</t>
   </si>
   <si>
@@ -1734,9 +1740,6 @@
   </si>
   <si>
     <t>Manjorie Janssen</t>
-  </si>
-  <si>
-    <t>Tess van Randtwijk</t>
   </si>
   <si>
     <t>AV '34 Apeldoorn</t>
@@ -2943,11 +2946,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm:ss.00"/>
     <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="[$-413]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -2984,7 +2988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3027,6 +3031,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3349,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3AB92-3F00-409D-A557-1F922B760427}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3369,7 +3374,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3696,13 +3701,13 @@
         <v>31</v>
       </c>
       <c r="D22" s="1">
-        <v>1.2500000000000003E-4</v>
+        <v>1.2476851851851852E-4</v>
       </c>
       <c r="E22" s="7">
-        <v>2.2999999999999998</v>
+        <v>-0.1</v>
       </c>
       <c r="F22" s="4">
-        <v>44694</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3716,13 +3721,13 @@
         <v>33</v>
       </c>
       <c r="D23" s="1">
-        <v>1.2569444444444444E-4</v>
+        <v>1.2500000000000003E-4</v>
       </c>
       <c r="E23" s="7">
-        <v>6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F23" s="4">
-        <v>45114</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3958,7 +3963,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
         <v>1.2824074074074075E-4</v>
@@ -3998,7 +4003,7 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1">
         <v>1.2835648148148149E-4</v>
@@ -4038,7 +4043,7 @@
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
         <v>1.2858796296296294E-4</v>
@@ -4414,7 +4419,7 @@
         <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1">
         <v>1.434027777777778E-4</v>
@@ -4599,7 +4604,7 @@
         <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="1">
         <v>1.3518518518518518E-4</v>
@@ -4805,7 +4810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A90C3-0F13-4BB4-AB50-0472F80ACBBB}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -4825,7 +4830,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4858,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C5" t="s">
         <v>470</v>
@@ -4875,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C6" t="s">
         <v>299</v>
@@ -4892,10 +4897,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D7" s="1">
         <v>9.8042824074074074E-3</v>
@@ -4909,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -4926,10 +4931,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D9" s="1">
         <v>9.817013888888889E-3</v>
@@ -4943,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4960,7 +4965,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -4977,10 +4982,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D12" s="1">
         <v>9.8988425925925928E-3</v>
@@ -4994,10 +4999,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D13" s="1">
         <v>9.9056712962962961E-3</v>
@@ -5011,10 +5016,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C14" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D14" s="1">
         <v>9.913773148148149E-3</v>
@@ -5056,7 +5061,7 @@
         <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D19" s="1">
         <v>1.0029745370370369E-2</v>
@@ -5087,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D21" s="1">
         <v>1.0231712962962962E-2</v>
@@ -5104,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C22" t="s">
         <v>319</v>
@@ -5121,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -5155,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C25" t="s">
         <v>212</v>
@@ -5172,7 +5177,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -5189,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C27" t="s">
         <v>338</v>
@@ -5206,7 +5211,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C28" t="s">
         <v>361</v>
@@ -5259,7 +5264,7 @@
         <v>472</v>
       </c>
       <c r="C33" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D33" s="1">
         <v>1.0368749999999999E-2</v>
@@ -5290,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -5307,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C36" t="s">
         <v>334</v>
@@ -5324,7 +5329,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D37" s="1">
         <v>1.081898148148148E-2</v>
@@ -5338,10 +5343,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D38" s="1">
         <v>1.0855787037037037E-2</v>
@@ -5355,10 +5360,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C39" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D39" s="1">
         <v>1.0971180555555557E-2</v>
@@ -5372,7 +5377,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C40" t="s">
         <v>338</v>
@@ -5389,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C41" t="s">
         <v>319</v>
@@ -5406,7 +5411,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C42" t="s">
         <v>442</v>
@@ -5457,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C47" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D47" s="1">
         <v>1.032349537037037E-2</v>
@@ -5474,10 +5479,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C48" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D48" s="1">
         <v>1.0403935185185186E-2</v>
@@ -5491,7 +5496,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -5508,7 +5513,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C50" t="s">
         <v>340</v>
@@ -5542,10 +5547,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C52" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D52" s="1">
         <v>1.0872337962962964E-2</v>
@@ -5559,10 +5564,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C53" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D53" s="1">
         <v>1.0932175925925927E-2</v>
@@ -5576,7 +5581,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C54" t="s">
         <v>331</v>
@@ -5593,7 +5598,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C55" t="s">
         <v>334</v>
@@ -5610,10 +5615,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C56" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D56" s="1">
         <v>1.1033101851851851E-2</v>
@@ -5652,10 +5657,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D61" s="1">
         <v>1.1679629629629628E-2</v>
@@ -5670,10 +5675,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C62" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D62" s="1">
         <v>1.1868634259259258E-2</v>
@@ -5687,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C63" t="s">
         <v>53</v>
@@ -5704,10 +5709,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C64" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D64" s="1">
         <v>1.225914351851852E-2</v>
@@ -5721,10 +5726,10 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C65" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D65" s="1">
         <v>1.228611111111111E-2</v>
@@ -5738,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C66" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D66" s="1">
         <v>1.2318750000000002E-2</v>
@@ -5755,10 +5760,10 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C67" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D67" s="1">
         <v>1.2588078703703704E-2</v>
@@ -5772,10 +5777,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C68" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D68" s="1">
         <v>1.2645601851851852E-2</v>
@@ -5789,10 +5794,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C69" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D69" s="1">
         <v>1.2719444444444443E-2</v>
@@ -5806,10 +5811,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C70" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D70" s="1">
         <v>1.2795601851851851E-2</v>
@@ -5857,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C75" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D75" s="1">
         <v>1.0891087962962962E-2</v>
@@ -5874,10 +5879,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C76" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D76" s="1">
         <v>1.23E-2</v>
@@ -5891,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C77" t="s">
         <v>173</v>
@@ -5908,10 +5913,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D78" s="1">
         <v>1.2702777777777778E-2</v>
@@ -5925,10 +5930,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D79" s="1">
         <v>1.2712847222222221E-2</v>
@@ -5942,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s">
         <v>262</v>
@@ -5959,7 +5964,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C81" t="s">
         <v>449</v>
@@ -5976,10 +5981,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C82" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D82" s="1">
         <v>1.3097106481481482E-2</v>
@@ -5993,7 +5998,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C83" t="s">
         <v>79</v>
@@ -6010,10 +6015,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C84" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D84" s="1">
         <v>1.4723958333333334E-2</v>
@@ -6059,7 +6064,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6092,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C5" t="s">
         <v>319</v>
@@ -6109,10 +6114,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D6" s="1">
         <v>2.2000694444444444E-2</v>
@@ -6126,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C7" t="s">
         <v>383</v>
@@ -6143,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C8" t="s">
         <v>258</v>
@@ -6160,10 +6165,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1">
         <v>2.2525E-2</v>
@@ -6177,10 +6182,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D10" s="1">
         <v>2.2537962962962965E-2</v>
@@ -6194,7 +6199,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -6211,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -6229,7 +6234,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C13" t="s">
         <v>338</v>
@@ -6246,10 +6251,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>2.3884375000000003E-2</v>
@@ -6296,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D19" s="1">
         <v>2.5637962962962963E-2</v>
@@ -6313,10 +6318,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D20" s="1">
         <v>2.6765856481481484E-2</v>
@@ -6330,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6338,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6346,7 +6351,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6354,7 +6359,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6362,7 +6367,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6370,7 +6375,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -6379,7 +6384,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6387,7 +6392,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6428,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6436,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6444,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6452,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6460,7 +6465,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6468,7 +6473,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6476,7 +6481,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6484,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -6493,7 +6498,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6501,7 +6506,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6542,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -6553,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6561,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6569,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6577,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6585,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6593,7 +6598,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6601,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -6610,7 +6615,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6618,7 +6623,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6659,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="1"/>
@@ -6671,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6679,7 +6684,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6687,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6695,7 +6700,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6703,7 +6708,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6711,7 +6716,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6719,7 +6724,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -6728,7 +6733,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6736,7 +6741,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6777,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6785,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6793,7 +6798,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6801,7 +6806,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6809,7 +6814,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6817,7 +6822,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6825,7 +6830,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6833,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -6842,7 +6847,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6850,7 +6855,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6890,7 +6895,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6923,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
         <v>265</v>
@@ -6940,10 +6945,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>3.0646990740740739E-3</v>
@@ -6957,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
         <v>403</v>
@@ -6974,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
         <v>403</v>
@@ -6991,10 +6996,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D9" s="1">
         <v>3.0807870370370377E-3</v>
@@ -7008,7 +7013,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C10" t="s">
         <v>403</v>
@@ -7025,10 +7030,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D11" s="1">
         <v>3.1062499999999996E-3</v>
@@ -7042,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C12" t="s">
         <v>101</v>
@@ -7059,7 +7064,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -7076,7 +7081,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -7127,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C19" t="s">
         <v>348</v>
@@ -7144,10 +7149,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C20" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D20" s="1">
         <v>3.1546296296296292E-3</v>
@@ -7161,10 +7166,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D21" s="1">
         <v>3.1828703703703702E-3</v>
@@ -7178,10 +7183,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D22" s="1">
         <v>3.2297453703703702E-3</v>
@@ -7195,10 +7200,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C23" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D23" s="1">
         <v>3.2578703703703706E-3</v>
@@ -7212,10 +7217,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C24" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D24" s="1">
         <v>3.2702546296296295E-3</v>
@@ -7229,7 +7234,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C25" t="s">
         <v>212</v>
@@ -7246,7 +7251,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C26" t="s">
         <v>403</v>
@@ -7263,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
         <v>101</v>
@@ -7280,10 +7285,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D28" s="1">
         <v>3.3953703703703702E-3</v>
@@ -7331,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -7348,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C34" t="s">
         <v>256</v>
@@ -7365,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -7382,10 +7387,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C36" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D36" s="1">
         <v>3.3612268518518518E-3</v>
@@ -7399,10 +7404,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C37" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D37" s="1">
         <v>3.4284722222222221E-3</v>
@@ -7416,7 +7421,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C38" t="s">
         <v>321</v>
@@ -7433,10 +7438,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D39" s="1">
         <v>3.4835648148148148E-3</v>
@@ -7450,7 +7455,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D40" s="1">
         <v>3.4949074074074071E-3</v>
@@ -7465,10 +7470,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C41" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D41" s="1">
         <v>3.535185185185185E-3</v>
@@ -7482,10 +7487,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C42" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D42" s="1">
         <v>3.5791666666666667E-3</v>
@@ -7532,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C47" t="s">
         <v>403</v>
@@ -7549,10 +7554,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D48" s="1">
         <v>3.6136574074074074E-3</v>
@@ -7566,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -7583,10 +7588,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C50" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D50" s="1">
         <v>3.6530092592592591E-3</v>
@@ -7600,10 +7605,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C51" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D51" s="1">
         <v>3.6861111111111109E-3</v>
@@ -7617,10 +7622,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C52" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D52" s="1">
         <v>3.6983796296296296E-3</v>
@@ -7634,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C53" t="s">
         <v>175</v>
@@ -7651,7 +7656,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C54" t="s">
         <v>403</v>
@@ -7668,7 +7673,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C55" t="s">
         <v>456</v>
@@ -7685,7 +7690,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C56" t="s">
         <v>403</v>
@@ -7735,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -7753,10 +7758,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1">
         <v>3.7620370370370373E-3</v>
@@ -7770,10 +7775,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C63" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D63" s="1">
         <v>4.3464120370370367E-3</v>
@@ -7787,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7795,7 +7800,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7803,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7811,7 +7816,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7819,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -7828,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7836,7 +7841,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7877,10 +7882,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C75" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D75" s="1">
         <v>3.6680555555555559E-3</v>
@@ -7894,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C76" t="s">
         <v>137</v>
@@ -7911,7 +7916,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C77" t="s">
         <v>61</v>
@@ -7928,10 +7933,10 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C78" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D78" s="1">
         <v>4.5028935185185189E-3</v>
@@ -7945,7 +7950,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C79" t="s">
         <v>321</v>
@@ -7962,7 +7967,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7970,7 +7975,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7978,7 +7983,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -7987,7 +7992,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -7995,7 +8000,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8026,22 +8031,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C1" s="21">
-        <v>45142</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+        <v>707</v>
+      </c>
+      <c r="C1" s="22">
+        <v>45173</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8050,72 +8055,72 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="E8" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="G8" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="I8" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="K8" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="M8" s="18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B9" s="1">
         <f>'100 m'!D$5</f>
@@ -8168,7 +8173,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B10" s="1">
         <f>'150 m'!D$5</f>
@@ -8221,7 +8226,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B11" s="1">
         <f>'200 m'!D$5</f>
@@ -8274,7 +8279,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B12" s="1">
         <f>'300 m'!D$5</f>
@@ -8327,7 +8332,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B13" s="1">
         <f>'400 m'!D$5</f>
@@ -8380,7 +8385,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B14" s="1">
         <f>'800 m'!D$5</f>
@@ -8433,7 +8438,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B15" s="1">
         <f>'1.000 m'!D$5</f>
@@ -8486,7 +8491,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B16" s="1">
         <f>'1.500 m'!D$5</f>
@@ -8502,7 +8507,7 @@
       </c>
       <c r="E16" s="1">
         <f>'1.500 m'!D$28</f>
-        <v>2.7006944444444448E-3</v>
+        <v>2.6859953703703703E-3</v>
       </c>
       <c r="F16" s="1">
         <f>'1.500 m'!D$33</f>
@@ -8526,7 +8531,7 @@
       </c>
       <c r="K16" s="1">
         <f>'1.500 m'!D$70</f>
-        <v>3.1561342592592591E-3</v>
+        <v>3.154976851851852E-3</v>
       </c>
       <c r="L16" s="1">
         <f>'1.500 m'!D$75</f>
@@ -8539,7 +8544,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B17" s="1">
         <f>'3.000 m'!D$5</f>
@@ -8571,7 +8576,7 @@
       </c>
       <c r="I17" s="1">
         <f>'3.000 m'!D$56</f>
-        <v>6.2895833333333337E-3</v>
+        <v>6.2592592592592596E-3</v>
       </c>
       <c r="J17" s="1">
         <f>'3.000 m'!D$61</f>
@@ -8592,7 +8597,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B18" s="1">
         <f>'5.000 m'!D$5</f>
@@ -8645,7 +8650,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B19" s="1">
         <f>'10.000 m'!D$5</f>
@@ -8698,7 +8703,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B20" s="1">
         <f>Mijl!D$5</f>
@@ -8751,7 +8756,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B21" s="1">
         <f>'100-110 mH'!D$5</f>
@@ -8804,7 +8809,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B22" s="1">
         <f>'200 mH'!D$5</f>
@@ -8857,7 +8862,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B23" s="1">
         <f>'400 mH'!D$5</f>
@@ -8910,7 +8915,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B24" s="1">
         <f>'3.000 St'!D5</f>
@@ -8984,7 +8989,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9003,7 +9008,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9036,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -9056,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -9076,10 +9081,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D7" s="1">
         <v>1.6215277777777777E-4</v>
@@ -9096,7 +9101,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -9116,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D9" s="1">
         <v>1.6539351851851852E-4</v>
@@ -9136,7 +9141,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -9156,7 +9161,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -9176,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -9196,7 +9201,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C13" t="s">
         <v>256</v>
@@ -9216,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -9261,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
@@ -9281,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -9301,7 +9306,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C21" t="s">
         <v>175</v>
@@ -9321,7 +9326,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D22" s="1">
         <v>1.6620370370370367E-4</v>
@@ -9338,10 +9343,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C23" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D23" s="1">
         <v>1.6666666666666666E-4</v>
@@ -9358,7 +9363,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C24" t="s">
         <v>179</v>
@@ -9378,7 +9383,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -9398,10 +9403,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C26" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D26" s="1">
         <v>1.6840277777777782E-4</v>
@@ -9418,7 +9423,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -9438,7 +9443,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C28" t="s">
         <v>449</v>
@@ -9491,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C33" t="s">
         <v>85</v>
@@ -9511,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C34" t="s">
         <v>192</v>
@@ -9531,7 +9536,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -9551,10 +9556,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C36" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D36" s="1">
         <v>1.6574074074074074E-4</v>
@@ -9571,7 +9576,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -9591,10 +9596,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C38" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D38" s="1">
         <v>1.673611111111111E-4</v>
@@ -9611,7 +9616,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C39" t="s">
         <v>274</v>
@@ -9631,7 +9636,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C40" t="s">
         <v>346</v>
@@ -9651,10 +9656,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D41" s="1">
         <v>1.6828703703703702E-4</v>
@@ -9671,10 +9676,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C42" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D42" s="1">
         <v>1.6840277777777782E-4</v>
@@ -9716,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -9736,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -9756,7 +9761,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -9796,10 +9801,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C51" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D51" s="1">
         <v>1.6006944444444445E-4</v>
@@ -9836,7 +9841,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C53" t="s">
         <v>192</v>
@@ -9856,7 +9861,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -9896,10 +9901,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D56" s="1">
         <v>1.6319444444444443E-4</v>
@@ -9916,7 +9921,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C57" t="s">
         <v>56</v>
@@ -9961,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D61" s="1">
         <v>1.6180555555555558E-4</v>
@@ -9981,10 +9986,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C62" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D62" s="1">
         <v>1.6435185185185183E-4</v>
@@ -10001,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -10021,10 +10026,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C64" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D64" s="1">
         <v>1.7071759259259256E-4</v>
@@ -10041,7 +10046,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C65" t="s">
         <v>120</v>
@@ -10061,7 +10066,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C66" t="s">
         <v>215</v>
@@ -10081,10 +10086,10 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C67" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D67" s="1">
         <v>1.7141203703703706E-4</v>
@@ -10121,7 +10126,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
@@ -10141,10 +10146,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1">
         <v>1.721064814814815E-4</v>
@@ -10186,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D75" s="1">
         <v>1.6377314814814816E-4</v>
@@ -10203,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C76" t="s">
         <v>105</v>
@@ -10223,10 +10228,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C77" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D77" s="1">
         <v>1.6585648148148148E-4</v>
@@ -10243,7 +10248,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C78" t="s">
         <v>175</v>
@@ -10263,7 +10268,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C79" t="s">
         <v>256</v>
@@ -10283,7 +10288,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -10303,10 +10308,10 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C81" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D81" s="1">
         <v>1.6921296296296294E-4</v>
@@ -10323,7 +10328,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -10343,10 +10348,10 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C83" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D83" s="1">
         <v>1.6944444444444448E-4</v>
@@ -10363,10 +10368,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C84" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D84" s="1">
         <v>1.7060185185185188E-4</v>
@@ -10407,7 +10412,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10460,10 +10465,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D6" s="1">
         <v>2.7905092592592592E-4</v>
@@ -10480,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -10520,7 +10525,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -10580,10 +10585,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D12" s="1">
         <v>2.8692129629629624E-4</v>
@@ -10600,7 +10605,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -10620,7 +10625,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C14" t="s">
         <v>238</v>
@@ -10673,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
@@ -10693,7 +10698,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -10713,7 +10718,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C21" t="s">
         <v>179</v>
@@ -10733,10 +10738,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D22" s="1">
         <v>2.9363425925925927E-4</v>
@@ -10753,10 +10758,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D23" s="1">
         <v>2.9814814814814813E-4</v>
@@ -10773,10 +10778,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C24" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D24" s="1">
         <v>3.0000000000000003E-4</v>
@@ -10793,10 +10798,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C25" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D25" s="1">
         <v>3.0011574074074071E-4</v>
@@ -10813,10 +10818,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C26" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D26" s="1">
         <v>3.0046296296296299E-4</v>
@@ -10833,7 +10838,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -10853,10 +10858,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D28" s="1">
         <v>3.0601851851851856E-4</v>
@@ -10909,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -10929,10 +10934,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C34" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D34" s="1">
         <v>2.9849537037037035E-4</v>
@@ -10949,10 +10954,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C35" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D35" s="1">
         <v>2.9907407407407405E-4</v>
@@ -10969,7 +10974,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C36" t="s">
         <v>101</v>
@@ -10989,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -11009,7 +11014,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C38" t="s">
         <v>192</v>
@@ -11029,10 +11034,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C39" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D39" s="1">
         <v>3.2291666666666661E-4</v>
@@ -11069,10 +11074,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C41" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D41" s="1">
         <v>3.25462962962963E-4</v>
@@ -11089,7 +11094,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C42" t="s">
         <v>403</v>
@@ -11109,10 +11114,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
         <v>3.3101851851851852E-4</v>
@@ -11174,7 +11179,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -11194,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C49" t="s">
         <v>351</v>
@@ -11214,10 +11219,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C50" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D50" s="1">
         <v>3.3773148148148144E-4</v>
@@ -11234,7 +11239,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C51" t="s">
         <v>102</v>
@@ -11274,7 +11279,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -11294,16 +11299,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C54" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D54" s="1">
         <v>3.4432870370370368E-4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F54" s="4">
         <v>45142</v>
@@ -11314,7 +11319,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
@@ -11334,10 +11339,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C56" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D56" s="1">
         <v>3.459490740740741E-4</v>
@@ -11390,7 +11395,7 @@
         <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D61" s="1">
         <v>3.2881944444444446E-4</v>
@@ -11427,10 +11432,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C63" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D63" s="1">
         <v>3.3900462962962964E-4</v>
@@ -11447,10 +11452,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C64" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D64" s="1">
         <v>3.4502314814814812E-4</v>
@@ -11467,7 +11472,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C65" t="s">
         <v>344</v>
@@ -11487,7 +11492,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C66" t="s">
         <v>96</v>
@@ -11507,7 +11512,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C67" t="s">
         <v>256</v>
@@ -11527,7 +11532,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C68" t="s">
         <v>256</v>
@@ -11547,7 +11552,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C69" t="s">
         <v>344</v>
@@ -11567,7 +11572,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C70" t="s">
         <v>56</v>
@@ -11620,10 +11625,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C75" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D75" s="1">
         <v>3.4004629629629624E-4</v>
@@ -11640,10 +11645,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C76" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D76" s="1">
         <v>3.4016203703703704E-4</v>
@@ -11660,10 +11665,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C77" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D77" s="1">
         <v>3.4074074074074079E-4</v>
@@ -11700,7 +11705,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -11720,7 +11725,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C80" t="s">
         <v>105</v>
@@ -11740,10 +11745,10 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C81" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D81" s="1">
         <v>3.505787037037037E-4</v>
@@ -11760,7 +11765,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -11800,10 +11805,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C84" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D84" s="1">
         <v>3.5613425925925933E-4</v>
@@ -11852,7 +11857,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11885,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -11902,10 +11907,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C6" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D6" s="1">
         <v>6.0289351851851856E-4</v>
@@ -11919,7 +11924,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C7" t="s">
         <v>222</v>
@@ -11936,7 +11941,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -11953,7 +11958,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -11970,10 +11975,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D10" s="1">
         <v>6.0914351851851852E-4</v>
@@ -11987,7 +11992,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C11" t="s">
         <v>269</v>
@@ -12004,7 +12009,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -12021,7 +12026,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -12038,7 +12043,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -12088,10 +12093,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D19" s="1">
         <v>6.0335648148148152E-4</v>
@@ -12105,10 +12110,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C20" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D20" s="1">
         <v>6.2986111111111109E-4</v>
@@ -12122,10 +12127,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C21" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D21" s="1">
         <v>6.3113425925925934E-4</v>
@@ -12139,10 +12144,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D22" s="1">
         <v>6.3668981481481476E-4</v>
@@ -12156,10 +12161,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C23" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D23" s="1">
         <v>6.4351851851851853E-4</v>
@@ -12190,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C25" t="s">
         <v>387</v>
@@ -12207,10 +12212,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C26" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D26" s="1">
         <v>6.5243055555555551E-4</v>
@@ -12224,10 +12229,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D27" s="1">
         <v>6.5254629629629636E-4</v>
@@ -12241,10 +12246,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>6.5289351851851847E-4</v>
@@ -12284,10 +12289,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C33" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D33" s="1">
         <v>6.2222222222222225E-4</v>
@@ -12301,7 +12306,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C34" t="s">
         <v>83</v>
@@ -12318,10 +12323,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C35" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D35" s="1">
         <v>6.3368055555555552E-4</v>
@@ -12344,7 +12349,7 @@
         <v>6.4305555555555557E-4</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12352,10 +12357,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D37" s="1">
         <v>6.4791666666666665E-4</v>
@@ -12369,7 +12374,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -12386,10 +12391,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D39" s="1">
         <v>6.4942129629629627E-4</v>
@@ -12403,10 +12408,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C40" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D40" s="1">
         <v>6.4965277777777775E-4</v>
@@ -12420,7 +12425,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C41" t="s">
         <v>242</v>
@@ -12437,10 +12442,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C42" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D42" s="1">
         <v>6.5335648148148143E-4</v>
@@ -12505,10 +12510,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C48" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D48" s="1">
         <v>6.8495370370370368E-4</v>
@@ -12522,10 +12527,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C49" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D49" s="1">
         <v>7.0023148148148147E-4</v>
@@ -12539,7 +12544,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -12590,7 +12595,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
@@ -12607,7 +12612,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -12624,7 +12629,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C55" t="s">
         <v>387</v>
@@ -12641,10 +12646,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C56" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D56" s="1">
         <v>7.1967592592592602E-4</v>
@@ -12658,7 +12663,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C57" t="s">
         <v>437</v>
@@ -12700,10 +12705,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D61" s="1">
         <v>7.3402777777777778E-4</v>
@@ -12735,7 +12740,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -12752,7 +12757,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C64" t="s">
         <v>274</v>
@@ -12769,7 +12774,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -12786,7 +12791,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C66" t="s">
         <v>331</v>
@@ -12803,7 +12808,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C67" t="s">
         <v>133</v>
@@ -12820,7 +12825,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C68" t="s">
         <v>143</v>
@@ -12837,7 +12842,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -12855,10 +12860,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C70" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D70" s="1">
         <v>7.6111111111111117E-4</v>
@@ -12905,10 +12910,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C75" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D75" s="1">
         <v>7.1481481481481483E-4</v>
@@ -12922,10 +12927,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C76" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D76" s="1">
         <v>7.2511574074074069E-4</v>
@@ -12973,7 +12978,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C79" t="s">
         <v>256</v>
@@ -12990,10 +12995,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C80" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D80" s="1">
         <v>7.5868055555555552E-4</v>
@@ -13007,7 +13012,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C81" t="s">
         <v>101</v>
@@ -13024,7 +13029,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -13041,10 +13046,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C83" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D83" s="1">
         <v>7.6388888888888893E-4</v>
@@ -13058,10 +13063,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C84" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D84" s="1">
         <v>7.6435185185185189E-4</v>
@@ -13107,7 +13112,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13140,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C5" t="s">
         <v>173</v>
@@ -13157,10 +13162,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D6" s="1">
         <v>6.3653935185185194E-3</v>
@@ -13174,10 +13179,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C7" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D7" s="1">
         <v>6.4061342592592581E-3</v>
@@ -13208,10 +13213,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D9" s="1">
         <v>6.4488425925925928E-3</v>
@@ -13225,10 +13230,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D10" s="1">
         <v>6.5532407407407414E-3</v>
@@ -13242,7 +13247,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -13259,10 +13264,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C12" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D12" s="1">
         <v>6.6282407407407401E-3</v>
@@ -13277,7 +13282,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -13294,10 +13299,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C14" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D14" s="1">
         <v>6.6657407407407403E-3</v>
@@ -13344,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C19" t="s">
         <v>120</v>
@@ -13361,10 +13366,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D20" s="1">
         <v>6.5575231481481483E-3</v>
@@ -13378,7 +13383,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C21" t="s">
         <v>442</v>
@@ -13395,10 +13400,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D22" s="1">
         <v>7.0921296296296297E-3</v>
@@ -13412,7 +13417,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C23" t="s">
         <v>346</v>
@@ -13429,7 +13434,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C24" t="s">
         <v>150</v>
@@ -13446,7 +13451,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -13463,7 +13468,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -13480,7 +13485,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C27" t="s">
         <v>101</v>
@@ -13498,10 +13503,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D28" s="1">
         <v>7.5418981481481483E-3</v>
@@ -13548,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C33" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D33" s="1">
         <v>7.4998842592592591E-3</v>
@@ -13565,7 +13570,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C34" t="s">
         <v>344</v>
@@ -13582,7 +13587,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C35" t="s">
         <v>344</v>
@@ -13599,7 +13604,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -13616,7 +13621,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C37" t="s">
         <v>361</v>
@@ -13633,10 +13638,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C38" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D38" s="1">
         <v>8.2792824074074071E-3</v>
@@ -13650,7 +13655,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C39" t="s">
         <v>83</v>
@@ -13667,7 +13672,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -13684,10 +13689,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C41" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D41" s="1">
         <v>8.4416666666666668E-3</v>
@@ -13702,7 +13707,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C42" t="s">
         <v>340</v>
@@ -13752,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -13769,10 +13774,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D48" s="1">
         <v>7.2028935185185182E-3</v>
@@ -13786,7 +13791,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C49" t="s">
         <v>256</v>
@@ -13806,7 +13811,7 @@
         <v>440</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1">
         <v>7.7096064814814813E-3</v>
@@ -13820,7 +13825,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -13837,7 +13842,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C52" t="s">
         <v>398</v>
@@ -13854,7 +13859,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -13871,10 +13876,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C54" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D54" s="1">
         <v>8.3519675925925931E-3</v>
@@ -13889,7 +13894,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C55" t="s">
         <v>403</v>
@@ -13906,7 +13911,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -13956,10 +13961,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C61" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D61" s="1">
         <v>7.4182870370370383E-3</v>
@@ -13974,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
@@ -13991,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -14008,7 +14013,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -14016,7 +14021,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -14024,7 +14029,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -14032,7 +14037,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -14040,7 +14045,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -14049,7 +14054,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -14057,7 +14062,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -14098,10 +14103,10 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C75" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D75" s="1">
         <v>7.9829861111111108E-3</v>
@@ -14115,7 +14120,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -14123,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -14131,7 +14136,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -14139,7 +14144,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -14147,7 +14152,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -14155,7 +14160,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -14163,7 +14168,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -14172,7 +14177,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -14180,7 +14185,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -14200,8 +14205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06354D2C-A906-4690-93EF-C22F9036D193}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -14217,19 +14222,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C1" s="12">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>2</v>
@@ -14247,7 +14252,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14255,7 +14260,7 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C5" t="str">
         <f>'100 m'!B$5</f>
@@ -14273,12 +14278,12 @@
         <f>'100 m'!E$5</f>
         <v>1.2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="20">
         <f>'100 m'!F$5</f>
         <v>44442</v>
       </c>
       <c r="H5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14286,7 +14291,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C6" t="str">
         <f>'100 m'!B$19</f>
@@ -14304,12 +14309,12 @@
         <f>'100 m'!E$19</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="20">
         <f>'100 m'!F$19</f>
         <v>45093</v>
       </c>
       <c r="H6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14317,7 +14322,7 @@
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C7" t="str">
         <f>'100 m'!B$33</f>
@@ -14335,12 +14340,12 @@
         <f>'100 m'!E$33</f>
         <v>0.1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="20">
         <f>'100 m'!F$33</f>
         <v>42195</v>
       </c>
       <c r="H7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14348,7 +14353,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C8" t="str">
         <f>'100 m'!B$47</f>
@@ -14366,12 +14371,12 @@
         <f>'100 m'!E$47</f>
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="20">
         <f>'100 m'!F$47</f>
         <v>43707</v>
       </c>
       <c r="H8" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14379,7 +14384,7 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C9" t="str">
         <f>'100 m'!B$61</f>
@@ -14397,12 +14402,12 @@
         <f>'100 m'!E$61</f>
         <v>0.3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="20">
         <f>'100 m'!F$61</f>
         <v>41831</v>
       </c>
       <c r="H9" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14410,7 +14415,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C10" t="str">
         <f>'100 m'!B$75</f>
@@ -14428,12 +14433,12 @@
         <f>'100 m'!E$75</f>
         <v>1.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="20">
         <f>'100 m'!F$75</f>
         <v>42909</v>
       </c>
       <c r="H10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14441,7 +14446,7 @@
         <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C11" t="str">
         <f>'150 m'!B$5</f>
@@ -14459,12 +14464,12 @@
         <f>'150 m'!E$5</f>
         <v>1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="20">
         <f>'150 m'!F$5</f>
         <v>38926</v>
       </c>
       <c r="H11" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14472,7 +14477,7 @@
         <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C12" t="str">
         <f>'150 m'!B$19</f>
@@ -14490,12 +14495,12 @@
         <f>'150 m'!E$19</f>
         <v>1.8</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="20">
         <f>'150 m'!F$19</f>
         <v>44778</v>
       </c>
       <c r="H12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14503,7 +14508,7 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C13" t="str">
         <f>'150 m'!B$33</f>
@@ -14521,12 +14526,12 @@
         <f>'150 m'!E$33</f>
         <v>-0.4</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="20">
         <f>'150 m'!F$33</f>
         <v>42230</v>
       </c>
       <c r="H13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14534,7 +14539,7 @@
         <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C14" t="str">
         <f>'150 m'!B$47</f>
@@ -14552,12 +14557,12 @@
         <f>'150 m'!E$47</f>
         <v>-0.3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="20">
         <f>'150 m'!F$47</f>
         <v>42230</v>
       </c>
       <c r="H14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14565,7 +14570,7 @@
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C15" t="str">
         <f>'150 m'!B$61</f>
@@ -14583,12 +14588,12 @@
         <f>'150 m'!E$61</f>
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="20">
         <f>'150 m'!F$61</f>
         <v>41859</v>
       </c>
       <c r="H15" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14596,7 +14601,7 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C16" t="str">
         <f>'150 m'!B$75</f>
@@ -14614,12 +14619,12 @@
         <f>'150 m'!E$75</f>
         <v>0.2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="20">
         <f>'150 m'!F$75</f>
         <v>39647</v>
       </c>
       <c r="H16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14627,7 +14632,7 @@
         <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C17" t="str">
         <f>'200 m'!B$5</f>
@@ -14645,12 +14650,12 @@
         <f>'200 m'!E$5</f>
         <v>0.4</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="20">
         <f>'200 m'!F$5</f>
         <v>44442</v>
       </c>
       <c r="H17" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14658,7 +14663,7 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C18" t="str">
         <f>'200 m'!B$19</f>
@@ -14676,12 +14681,12 @@
         <f>'200 m'!E$19</f>
         <v>0</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="20">
         <f>'200 m'!F$19</f>
         <v>45114</v>
       </c>
       <c r="H18" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14689,7 +14694,7 @@
         <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C19" t="str">
         <f>'200 m'!B$33</f>
@@ -14707,12 +14712,12 @@
         <f>'200 m'!E$33</f>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="20">
         <f>'200 m'!F$33</f>
         <v>42195</v>
       </c>
       <c r="H19" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14720,7 +14725,7 @@
         <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C20" t="str">
         <f>'200 m'!B$47</f>
@@ -14738,12 +14743,12 @@
         <f>'200 m'!E$47</f>
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="20">
         <f>'200 m'!F$47</f>
         <v>42566</v>
       </c>
       <c r="H20" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14751,7 +14756,7 @@
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C21" t="str">
         <f>'200 m'!B$61</f>
@@ -14769,12 +14774,12 @@
         <f>'200 m'!E$61</f>
         <v>0</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="20">
         <f>'200 m'!F$61</f>
         <v>42195</v>
       </c>
       <c r="H21" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14782,7 +14787,7 @@
         <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C22" t="str">
         <f>'200 m'!B$75</f>
@@ -14800,12 +14805,12 @@
         <f>'200 m'!E$75</f>
         <v>0.8</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="20">
         <f>'200 m'!F$75</f>
         <v>39689</v>
       </c>
       <c r="H22" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14813,7 +14818,7 @@
         <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C23" t="str">
         <f>'300 m'!B$5</f>
@@ -14827,12 +14832,12 @@
         <f>'300 m'!D$5</f>
         <v>3.8518518518518519E-4</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="20">
         <f>'300 m'!F$5</f>
         <v>41495</v>
       </c>
       <c r="H23" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14840,7 +14845,7 @@
         <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C24" t="str">
         <f>'300 m'!B$19</f>
@@ -14854,12 +14859,12 @@
         <f>'300 m'!D$19</f>
         <v>3.9710648148148157E-4</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="20">
         <f>'300 m'!F$19</f>
         <v>41152</v>
       </c>
       <c r="H24" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14867,7 +14872,7 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C25" t="str">
         <f>'300 m'!B$33</f>
@@ -14881,12 +14886,12 @@
         <f>'300 m'!D$33</f>
         <v>4.071759259259259E-4</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="20">
         <f>'300 m'!F$33</f>
         <v>38184</v>
       </c>
       <c r="H25" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14894,7 +14899,7 @@
         <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C26" t="str">
         <f>'300 m'!B$47</f>
@@ -14908,12 +14913,12 @@
         <f>'300 m'!D$47</f>
         <v>4.4328703703703701E-4</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="20">
         <f>'300 m'!F$47</f>
         <v>42230</v>
       </c>
       <c r="H26" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14921,7 +14926,7 @@
         <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C27" t="str">
         <f>'300 m'!B$61</f>
@@ -14935,12 +14940,12 @@
         <f>'300 m'!D$61</f>
         <v>4.7314814814814816E-4</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="20">
         <f>'300 m'!F$61</f>
         <v>41859</v>
       </c>
       <c r="H27" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14948,7 +14953,7 @@
         <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C28" t="str">
         <f>'300 m'!B$75</f>
@@ -14962,12 +14967,12 @@
         <f>'300 m'!D$75</f>
         <v>4.6435185185185186E-4</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="20">
         <f>'300 m'!F$75</f>
         <v>40004</v>
       </c>
       <c r="H28" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14975,7 +14980,7 @@
         <v>400</v>
       </c>
       <c r="B29" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C29" t="str">
         <f>'400 m'!B$5</f>
@@ -14989,12 +14994,12 @@
         <f>'400 m'!D$5</f>
         <v>5.4675925925925931E-4</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="20">
         <f>'400 m'!F$5</f>
         <v>37477</v>
       </c>
       <c r="H29" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15002,7 +15007,7 @@
         <v>400</v>
       </c>
       <c r="B30" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C30" t="str">
         <f>'400 m'!B$19</f>
@@ -15016,12 +15021,12 @@
         <f>'400 m'!D$19</f>
         <v>5.4837962962962967E-4</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="20">
         <f>'400 m'!F$19</f>
         <v>36385</v>
       </c>
       <c r="H30" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15029,7 +15034,7 @@
         <v>400</v>
       </c>
       <c r="B31" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C31" t="str">
         <f>'400 m'!B$33</f>
@@ -15043,12 +15048,12 @@
         <f>'400 m'!D$33</f>
         <v>5.6921296296296299E-4</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="20">
         <f>'400 m'!F$33</f>
         <v>44050</v>
       </c>
       <c r="H31" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15056,7 +15061,7 @@
         <v>400</v>
       </c>
       <c r="B32" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C32" t="str">
         <f>'400 m'!B$47</f>
@@ -15070,12 +15075,12 @@
         <f>'400 m'!D$47</f>
         <v>6.3067129629629627E-4</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="20">
         <f>'400 m'!F$47</f>
         <v>44050</v>
       </c>
       <c r="H32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15083,7 +15088,7 @@
         <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C33" t="str">
         <f>'400 m'!B$61</f>
@@ -15097,12 +15102,12 @@
         <f>'400 m'!D$61</f>
         <v>6.356481481481481E-4</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="20">
         <f>'400 m'!F$61</f>
         <v>44673</v>
       </c>
       <c r="H33" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15110,7 +15115,7 @@
         <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C34" t="str">
         <f>'400 m'!B$75</f>
@@ -15124,12 +15129,12 @@
         <f>'400 m'!D$75</f>
         <v>6.2951388888888887E-4</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="20">
         <f>'400 m'!F$75</f>
         <v>45093</v>
       </c>
       <c r="H34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15137,7 +15142,7 @@
         <v>800</v>
       </c>
       <c r="B35" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C35" t="str">
         <f>'800 m'!B$5</f>
@@ -15151,12 +15156,12 @@
         <f>'800 m'!D$5</f>
         <v>1.2482638888888888E-3</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="20">
         <f>'800 m'!F$5</f>
         <v>38968</v>
       </c>
       <c r="H35" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15164,7 +15169,7 @@
         <v>800</v>
       </c>
       <c r="B36" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C36" t="str">
         <f>'800 m'!B$19</f>
@@ -15178,12 +15183,12 @@
         <f>'800 m'!D$19</f>
         <v>1.2649305555555554E-3</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="20">
         <f>'800 m'!F$19</f>
         <v>41831</v>
       </c>
       <c r="H36" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15191,7 +15196,7 @@
         <v>800</v>
       </c>
       <c r="B37" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C37" t="str">
         <f>'800 m'!B$33</f>
@@ -15205,12 +15210,12 @@
         <f>'800 m'!D$33</f>
         <v>1.2784722222222223E-3</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="20">
         <f>'800 m'!F$33</f>
         <v>44694</v>
       </c>
       <c r="H37" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15218,7 +15223,7 @@
         <v>800</v>
       </c>
       <c r="B38" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C38" t="str">
         <f>'800 m'!B$47</f>
@@ -15232,12 +15237,12 @@
         <f>'800 m'!D$47</f>
         <v>1.419212962962963E-3</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="20">
         <f>'800 m'!F$47</f>
         <v>37792</v>
       </c>
       <c r="H38" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15245,7 +15250,7 @@
         <v>800</v>
       </c>
       <c r="B39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C39" t="str">
         <f>'800 m'!B$61</f>
@@ -15259,12 +15264,12 @@
         <f>'800 m'!D$61</f>
         <v>1.4862268518518516E-3</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="20">
         <f>'800 m'!F$61</f>
         <v>44442</v>
       </c>
       <c r="H39" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15272,7 +15277,7 @@
         <v>800</v>
       </c>
       <c r="B40" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C40" t="str">
         <f>'800 m'!B$75</f>
@@ -15286,20 +15291,20 @@
         <f>'800 m'!D$75</f>
         <v>1.4815972222222225E-3</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="20">
         <f>'800 m'!F$75</f>
         <v>45114</v>
       </c>
       <c r="H40" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B41" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C41" t="str">
         <f>'1.000 m'!B5</f>
@@ -15312,20 +15317,20 @@
       <c r="E41" s="1">
         <v>1.6878472222222223E-3</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="20">
         <f>'1.000 m'!F5</f>
         <v>41460</v>
       </c>
       <c r="H41" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B42" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C42" t="str">
         <f>'1.000 m'!B$19</f>
@@ -15338,20 +15343,20 @@
       <c r="E42" s="1">
         <v>1.738310185185185E-3</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="20">
         <f>'1.000 m'!F$19</f>
         <v>38184</v>
       </c>
       <c r="H42" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B43" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C43" t="str">
         <f>'1.000 m'!B$33</f>
@@ -15364,20 +15369,20 @@
       <c r="E43" s="1">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="20">
         <f>'1.000 m'!F$33</f>
         <v>42615</v>
       </c>
       <c r="H43" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B44" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C44" t="str">
         <f>'1.000 m'!B$47</f>
@@ -15390,20 +15395,20 @@
       <c r="E44" s="1">
         <v>1.950810185185185E-3</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="20">
         <f>'1.000 m'!F$47</f>
         <v>40788</v>
       </c>
       <c r="H44" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B45" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C45" t="str">
         <f>'1.000 m'!B$61</f>
@@ -15416,20 +15421,20 @@
       <c r="E45" s="1">
         <v>1.9820601851851852E-3</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="20">
         <f>'1.000 m'!F$61</f>
         <v>40004</v>
       </c>
       <c r="H45" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>949</v>
+      </c>
+      <c r="B46" t="s">
         <v>948</v>
-      </c>
-      <c r="B46" t="s">
-        <v>947</v>
       </c>
       <c r="C46" t="str">
         <f>'1.000 m'!B$75</f>
@@ -15442,20 +15447,20 @@
       <c r="E46" s="1">
         <v>1.9765046296296297E-3</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="20">
         <f>'1.000 m'!F$75</f>
         <v>41810</v>
       </c>
       <c r="H46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B47" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C47" t="str">
         <f>'1.500 m'!B$5</f>
@@ -15468,20 +15473,20 @@
       <c r="E47" s="1">
         <v>2.531134259259259E-3</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="20">
         <f>'1.500 m'!F$5</f>
         <v>43294</v>
       </c>
       <c r="H47" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C48" t="str">
         <f>'1.500 m'!B$19</f>
@@ -15494,20 +15499,20 @@
       <c r="E48" s="1">
         <v>2.5429398148148151E-3</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="20">
         <f>'1.500 m'!F$19</f>
         <v>39332</v>
       </c>
       <c r="H48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B49" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C49" t="str">
         <f>'1.500 m'!B$33</f>
@@ -15520,20 +15525,20 @@
       <c r="E49" s="1">
         <v>2.5982638888888891E-3</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="20">
         <f>'1.500 m'!F$33</f>
         <v>39332</v>
       </c>
       <c r="H49" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B50" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C50" t="str">
         <f>'1.500 m'!B$47</f>
@@ -15546,20 +15551,20 @@
       <c r="E50" s="1">
         <v>2.9002314814814811E-3</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="20">
         <f>'1.500 m'!F$47</f>
         <v>43658</v>
       </c>
       <c r="H50" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B51" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C51" t="str">
         <f>'1.500 m'!B$61</f>
@@ -15572,20 +15577,20 @@
       <c r="E51" s="1">
         <v>2.9819444444444437E-3</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="20">
         <f>'1.500 m'!F$61</f>
         <v>40767</v>
       </c>
       <c r="H51" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B52" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C52" t="str">
         <f>'1.500 m'!B$75</f>
@@ -15598,20 +15603,20 @@
       <c r="E52" s="1">
         <v>3.0164351851851849E-3</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="20">
         <f>'1.500 m'!F$75</f>
         <v>43343</v>
       </c>
       <c r="H52" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B53" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C53" t="str">
         <f>'3.000 m'!B$5</f>
@@ -15624,20 +15629,20 @@
       <c r="E53" s="1">
         <v>5.5388888888888883E-3</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="20">
         <f>'3.000 m'!F$5</f>
         <v>41831</v>
       </c>
       <c r="H53" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B54" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C54" t="str">
         <f>'3.000 m'!B$19</f>
@@ -15650,20 +15655,20 @@
       <c r="E54" s="1">
         <v>5.6209490740740733E-3</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="20">
         <f>'3.000 m'!F$19</f>
         <v>44722</v>
       </c>
       <c r="H54" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B55" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C55" t="str">
         <f>'3.000 m'!B$33</f>
@@ -15676,20 +15681,20 @@
       <c r="E55" s="1">
         <v>5.6923611111111107E-3</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="20">
         <f>'3.000 m'!F$33</f>
         <v>43686</v>
       </c>
       <c r="H55" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B56" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C56" t="str">
         <f>'3.000 m'!B$47</f>
@@ -15702,20 +15707,20 @@
       <c r="E56" s="1">
         <v>6.0371527777777776E-3</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="20">
         <f>'3.000 m'!F$47</f>
         <v>41495</v>
       </c>
       <c r="H56" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B57" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C57" t="str">
         <f>'3.000 m'!B$61</f>
@@ -15728,20 +15733,20 @@
       <c r="E57" s="1">
         <v>6.5185185185185181E-3</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="20">
         <f>'3.000 m'!F$61</f>
         <v>40788</v>
       </c>
       <c r="H57" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B58" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C58" t="str">
         <f>'3.000 m'!B$75</f>
@@ -15754,20 +15759,20 @@
       <c r="E58" s="1">
         <v>6.4203703703703706E-3</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="20">
         <f>'3.000 m'!F$75</f>
         <v>42909</v>
       </c>
       <c r="H58" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B59" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C59" t="str">
         <f>'5.000 m'!B$5</f>
@@ -15780,20 +15785,20 @@
       <c r="E59" s="1">
         <v>9.4109953703703699E-3</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="20">
         <f>'5.000 m'!F$5</f>
         <v>39598</v>
       </c>
       <c r="H59" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B60" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C60" t="str">
         <f>'5.000 m'!B$19</f>
@@ -15806,20 +15811,20 @@
       <c r="E60" s="1">
         <v>1.0029745370370369E-2</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="20">
         <f>'5.000 m'!F$19</f>
         <v>41880</v>
       </c>
       <c r="H60" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B61" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C61" t="str">
         <f>'5.000 m'!B$33</f>
@@ -15832,20 +15837,20 @@
       <c r="E61" s="1">
         <v>1.0368749999999999E-2</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="20">
         <f>'5.000 m'!F$33</f>
         <v>41516</v>
       </c>
       <c r="H61" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B62" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C62" t="str">
         <f>'5.000 m'!B$47</f>
@@ -15858,20 +15863,20 @@
       <c r="E62" s="1">
         <v>1.032349537037037E-2</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="20">
         <f>'5.000 m'!F$47</f>
         <v>37428</v>
       </c>
       <c r="H62" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B63" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C63" t="str">
         <f>'5.000 m'!B$61</f>
@@ -15884,20 +15889,20 @@
       <c r="E63" s="1">
         <v>1.1679629629629628E-2</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="20">
         <f>'5.000 m'!F$61</f>
         <v>44050</v>
       </c>
       <c r="H63" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B64" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C64" t="str">
         <f>'5.000 m'!B$75</f>
@@ -15910,20 +15915,20 @@
       <c r="E64" s="1">
         <v>1.23E-2</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="20">
         <f>'5.000 m'!F$75</f>
         <v>45142</v>
       </c>
       <c r="H64" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B65" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C65" t="str">
         <f>'10.000 m'!B$5</f>
@@ -15936,20 +15941,20 @@
       <c r="E65" s="1">
         <v>2.1926967592592592E-2</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="20">
         <f>'10.000 m'!F$5</f>
         <v>43588</v>
       </c>
       <c r="H65" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B66" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C66" t="str">
         <f>'10.000 m'!B$19</f>
@@ -15962,76 +15967,80 @@
       <c r="E66" s="1">
         <v>2.5637962962962963E-2</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="20">
         <f>'10.000 m'!F$19</f>
         <v>43588</v>
       </c>
       <c r="H66" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B67" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C67" t="s">
-        <v>953</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="G67" s="20"/>
       <c r="H67" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B68" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C68" t="s">
-        <v>953</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="G68" s="20"/>
       <c r="H68" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B69" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C69" t="s">
-        <v>953</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="G69" s="20"/>
       <c r="H69" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B70" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C70" t="s">
-        <v>953</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="G70" s="20"/>
       <c r="H70" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B71" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C71" t="str">
         <f>Mijl!B5</f>
@@ -16044,20 +16053,20 @@
       <c r="E71" s="1">
         <v>3.005555555555556E-3</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="20">
         <f>Mijl!F5</f>
         <v>39283</v>
       </c>
       <c r="H71" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B72" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C72" t="str">
         <f>Mijl!B19</f>
@@ -16070,20 +16079,20 @@
       <c r="E72" s="1">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="20">
         <f>Mijl!F19</f>
         <v>45142</v>
       </c>
       <c r="H72" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B73" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C73" t="str">
         <f>Mijl!B33</f>
@@ -16096,20 +16105,20 @@
       <c r="E73" s="1">
         <v>3.2329861111111114E-3</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="20">
         <f>Mijl!F33</f>
         <v>39283</v>
       </c>
       <c r="H73" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B74" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C74" t="str">
         <f>Mijl!B47</f>
@@ -16122,20 +16131,20 @@
       <c r="E74" s="1">
         <v>3.6136574074074074E-3</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="20">
         <f>Mijl!F47</f>
         <v>45142</v>
       </c>
       <c r="H74" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B75" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C75" t="str">
         <f>Mijl!B61</f>
@@ -16148,20 +16157,20 @@
       <c r="E75" s="1">
         <v>3.7620370370370373E-3</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="20">
         <f>Mijl!F61</f>
         <v>45142</v>
       </c>
       <c r="H75" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B76" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C76" t="str">
         <f>Mijl!B75</f>
@@ -16174,20 +16183,20 @@
       <c r="E76" s="1">
         <v>3.6680555555555559E-3</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="20">
         <f>Mijl!F75</f>
         <v>39283</v>
       </c>
       <c r="H76" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B77" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C77" t="str">
         <f>'100-110 mH'!B5</f>
@@ -16204,20 +16213,20 @@
         <f>'100-110 mH'!E5</f>
         <v>2</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="20">
         <f>'100-110 mH'!F5</f>
         <v>41397</v>
       </c>
       <c r="H77" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B78" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C78" t="str">
         <f>'100-110 mH'!B19</f>
@@ -16234,20 +16243,20 @@
         <f>'100-110 mH'!E19</f>
         <v>3.1</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="20">
         <f>'100-110 mH'!F19</f>
         <v>44414</v>
       </c>
       <c r="H78" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B79" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C79" t="str">
         <f>'100-110 mH'!B33</f>
@@ -16264,20 +16273,20 @@
         <f>'100-110 mH'!E33</f>
         <v>0.5</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="20">
         <f>'100-110 mH'!F33</f>
         <v>44332</v>
       </c>
       <c r="H79" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B80" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C80" t="str">
         <f>'100-110 mH'!B47</f>
@@ -16294,20 +16303,20 @@
         <f>'100-110 mH'!E47</f>
         <v>0</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="20">
         <f>'100-110 mH'!F47</f>
         <v>44332</v>
       </c>
       <c r="H80" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B81" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C81" t="str">
         <f>'100-110 mH'!B61</f>
@@ -16324,20 +16333,20 @@
         <f>'100-110 mH'!E61</f>
         <v>0</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="20">
         <f>'100-110 mH'!F61</f>
         <v>43343</v>
       </c>
       <c r="H81" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B82" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C82" t="str">
         <f>'100-110 mH'!B75</f>
@@ -16353,20 +16362,20 @@
         <f>'100-110 mH'!E75</f>
         <v>1.9</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="20">
         <f>'100-110 mH'!F75</f>
         <v>42888</v>
       </c>
       <c r="H82" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B83" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C83" t="str">
         <f>'200 mH'!B5</f>
@@ -16383,20 +16392,20 @@
         <f>'200 mH'!E5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="20">
         <f>'200 mH'!F5</f>
         <v>39283</v>
       </c>
       <c r="H83" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B84" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C84" t="str">
         <f>'200 mH'!B19</f>
@@ -16413,20 +16422,20 @@
         <f>'200 mH'!E19</f>
         <v>1.5</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="20">
         <f>'200 mH'!F19</f>
         <v>38926</v>
       </c>
       <c r="H84" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B85" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C85" t="str">
         <f>'200 mH'!B33</f>
@@ -16443,20 +16452,20 @@
         <f>'200 mH'!E33</f>
         <v>1.3</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="20">
         <f>'200 mH'!F33</f>
         <v>40004</v>
       </c>
       <c r="H85" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B86" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C86" t="str">
         <f>'200 mH'!B47</f>
@@ -16473,20 +16482,20 @@
         <f>'200 mH'!E47</f>
         <v>0.5</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="20">
         <f>'200 mH'!F47</f>
         <v>43686</v>
       </c>
       <c r="H86" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B87" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C87" t="str">
         <f>'200 mH'!B61</f>
@@ -16503,20 +16512,20 @@
         <f>'200 mH'!E61</f>
         <v>0.1</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="20">
         <f>'200 mH'!F61</f>
         <v>42230</v>
       </c>
       <c r="H87" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B88" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C88" t="str">
         <f>'200 mH'!B75</f>
@@ -16533,20 +16542,20 @@
         <f>'200 mH'!E75</f>
         <v>-0.5</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="20">
         <f>'200 mH'!F75</f>
         <v>42594</v>
       </c>
       <c r="H88" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B89" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C89" t="str">
         <f>'400 mH'!B5</f>
@@ -16559,20 +16568,20 @@
       <c r="E89" s="1">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="20">
         <f>'400 mH'!F5</f>
         <v>37456</v>
       </c>
       <c r="H89" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B90" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C90" t="str">
         <f>'400 mH'!B19</f>
@@ -16585,20 +16594,20 @@
       <c r="E90" s="1">
         <v>6.0335648148148152E-4</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="20">
         <f>'400 mH'!F19</f>
         <v>42566</v>
       </c>
       <c r="H90" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B91" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C91" t="str">
         <f>'400 mH'!B33</f>
@@ -16611,20 +16620,20 @@
       <c r="E91" s="1">
         <v>6.2222222222222225E-4</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="20">
         <f>'400 mH'!F33</f>
         <v>44050</v>
       </c>
       <c r="H91" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B92" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C92" t="str">
         <f>'400 mH'!B47</f>
@@ -16637,20 +16646,20 @@
       <c r="E92" s="1">
         <v>6.7789351851851854E-4</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="20">
         <f>'400 mH'!F47</f>
         <v>44694</v>
       </c>
       <c r="H92" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B93" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C93" t="str">
         <f>'400 mH'!B61</f>
@@ -16663,20 +16672,20 @@
       <c r="E93" s="1">
         <v>7.3402777777777778E-4</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="20">
         <f>'400 mH'!F61</f>
         <v>38520</v>
       </c>
       <c r="H93" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B94" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C94" t="str">
         <f>'400 mH'!B75</f>
@@ -16689,20 +16698,20 @@
       <c r="E94" s="1">
         <v>7.1481481481481483E-4</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="20">
         <f>'400 mH'!F75</f>
         <v>44750</v>
       </c>
       <c r="H94" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B95" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C95" t="str">
         <f>'3.000 St'!B5</f>
@@ -16715,20 +16724,20 @@
       <c r="E95" s="1">
         <v>6.1652777777777773E-3</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="20">
         <f>'3.000 St'!F5</f>
         <v>37064</v>
       </c>
       <c r="H95" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B96" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C96" t="str">
         <f>'3.000 St'!B19</f>
@@ -16741,20 +16750,20 @@
       <c r="E96" s="1">
         <v>6.4516203703703706E-3</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="20">
         <f>'3.000 St'!F19</f>
         <v>37113</v>
       </c>
       <c r="H96" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B97" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C97" t="str">
         <f>'3.000 St'!B33</f>
@@ -16767,20 +16776,20 @@
       <c r="E97" s="1">
         <v>7.4998842592592591E-3</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="20">
         <f>'3.000 St'!F33</f>
         <v>39283</v>
       </c>
       <c r="H97" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B98" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C98" t="str">
         <f>'3.000 St'!B47</f>
@@ -16793,20 +16802,20 @@
       <c r="E98" s="1">
         <v>7.1872685185185173E-3</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="20">
         <f>'3.000 St'!F47</f>
         <v>40788</v>
       </c>
       <c r="H98" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B99" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C99" t="str">
         <f>'3.000 St'!B61</f>
@@ -16819,20 +16828,20 @@
       <c r="E99" s="1">
         <v>7.4182870370370383E-3</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="20">
         <f>'3.000 St'!F61</f>
         <v>42489</v>
       </c>
       <c r="H99" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B100" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C100" t="str">
         <f>'3.000 St'!B75</f>
@@ -16845,12 +16854,12 @@
       <c r="E100" s="1">
         <v>7.9829861111111108E-3</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="20">
         <f>'3.000 St'!F75</f>
         <v>43609</v>
       </c>
       <c r="H100" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -16883,7 +16892,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16916,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -16927,7 +16936,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -16938,7 +16947,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -16949,7 +16958,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -16960,7 +16969,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -16971,7 +16980,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -16982,7 +16991,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -16993,7 +17002,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -17004,7 +17013,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -17015,7 +17024,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -17059,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -17070,7 +17079,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -17081,7 +17090,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -17092,7 +17101,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -17103,7 +17112,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -17114,7 +17123,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -17125,7 +17134,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -17136,7 +17145,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -17147,7 +17156,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -17158,7 +17167,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -17202,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -17213,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -17224,7 +17233,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -17235,7 +17244,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -17246,7 +17255,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -17257,7 +17266,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -17268,7 +17277,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -17279,7 +17288,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -17290,7 +17299,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -17301,7 +17310,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -17345,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
@@ -17356,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -17367,7 +17376,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -17378,7 +17387,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -17389,7 +17398,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E51" s="7">
         <v>0</v>
@@ -17400,7 +17409,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -17411,7 +17420,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E53" s="7">
         <v>0</v>
@@ -17422,7 +17431,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -17433,7 +17442,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E55" s="7">
         <v>0</v>
@@ -17444,7 +17453,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E56" s="7">
         <v>0</v>
@@ -17491,7 +17500,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="1"/>
@@ -17505,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -17516,7 +17525,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E63" s="7">
         <v>0</v>
@@ -17527,7 +17536,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E64" s="7">
         <v>0</v>
@@ -17538,7 +17547,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E65" s="7">
         <v>0</v>
@@ -17549,7 +17558,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E66" s="7">
         <v>0</v>
@@ -17560,7 +17569,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E67" s="7">
         <v>0</v>
@@ -17571,7 +17580,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68" s="8">
         <v>0</v>
@@ -17582,7 +17591,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -17593,7 +17602,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E70" s="7">
         <v>0</v>
@@ -17640,7 +17649,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E75" s="7">
         <v>0</v>
@@ -17651,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E76" s="7">
         <v>0</v>
@@ -17662,7 +17671,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E77" s="7">
         <v>0</v>
@@ -17673,7 +17682,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
@@ -17684,7 +17693,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E79" s="7">
         <v>0</v>
@@ -17695,7 +17704,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E80" s="7">
         <v>0</v>
@@ -17706,7 +17715,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
@@ -17717,7 +17726,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E82" s="8">
         <v>0</v>
@@ -17728,7 +17737,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E83" s="7">
         <v>0</v>
@@ -17739,7 +17748,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E84" s="7">
         <v>0</v>
@@ -17762,8 +17771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1D5E1-3BCE-400F-AF67-CFC9DF249C88}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -17782,7 +17791,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -18131,7 +18140,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
         <v>1.8923611111111113E-4</v>
@@ -18304,7 +18313,7 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1">
         <v>1.9016203703703705E-4</v>
@@ -18364,7 +18373,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
         <v>1.9583333333333334E-4</v>
@@ -18930,7 +18939,7 @@
         <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="1">
         <v>2.2893518518518518E-4</v>
@@ -19022,7 +19031,7 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D77" s="1">
         <v>2.179398148148148E-4</v>
@@ -19212,7 +19221,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -19478,7 +19487,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>2.4872685185185181E-4</v>
@@ -20030,7 +20039,7 @@
         <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1">
         <v>2.8634259259259259E-4</v>
@@ -20619,7 +20628,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20996,7 +21005,7 @@
         <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1">
         <v>4.2627314814814812E-4</v>
@@ -21523,7 +21532,7 @@
         <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1">
         <v>4.8530092592592592E-4</v>
@@ -21856,8 +21865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6957942-D991-4424-BBD7-6AB28243DB19}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -21876,7 +21885,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22421,7 +22430,7 @@
         <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1">
         <v>5.8587962962962966E-4</v>
@@ -22854,7 +22863,7 @@
         <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" s="1">
         <v>6.7361111111111126E-4</v>
@@ -22871,7 +22880,7 @@
         <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="1">
         <v>6.7546296296296289E-4</v>
@@ -23089,8 +23098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31CB02-91F0-4C9B-9EAB-0CB6F32967A5}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -23109,7 +23118,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23702,7 +23711,7 @@
         <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1">
         <v>1.3288194444444443E-3</v>
@@ -24225,7 +24234,7 @@
         <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1">
         <v>1.5155092592592592E-3</v>
@@ -24339,7 +24348,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -24899,7 +24908,7 @@
         <v>423</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1">
         <v>1.7925925925925924E-3</v>
@@ -25138,7 +25147,7 @@
         <v>435</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1">
         <v>2.0246527777777776E-3</v>
@@ -25223,7 +25232,7 @@
         <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" s="1">
         <v>2.0494212962962961E-3</v>
@@ -25257,7 +25266,7 @@
         <v>440</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1">
         <v>2.0800925925925926E-3</v>
@@ -25573,8 +25582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A212C88-9FEE-4EFF-A228-7223FF8A2C95}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -25583,7 +25592,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25593,7 +25602,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -25837,7 +25846,7 @@
         <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
         <v>2.6100694444444444E-3</v>
@@ -25919,16 +25928,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="D25" s="1">
-        <v>2.6822916666666666E-3</v>
+        <v>2.6810185185185188E-3</v>
       </c>
       <c r="F25" s="4">
-        <v>44673</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -25936,16 +25945,16 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="D26" s="1">
-        <v>2.6856481481481484E-3</v>
+        <v>2.6822916666666666E-3</v>
       </c>
       <c r="F26" s="4">
-        <v>44694</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25956,13 +25965,13 @@
         <v>475</v>
       </c>
       <c r="C27" t="s">
-        <v>476</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1">
-        <v>2.6859953703703703E-3</v>
+        <v>2.6856481481481484E-3</v>
       </c>
       <c r="F27" s="4">
-        <v>40347</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25970,16 +25979,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C28" t="s">
-        <v>338</v>
+        <v>477</v>
       </c>
       <c r="D28" s="1">
-        <v>2.7006944444444448E-3</v>
+        <v>2.6859953703703703E-3</v>
       </c>
       <c r="F28" s="4">
-        <v>41831</v>
+        <v>40347</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -26012,10 +26021,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D33" s="1">
         <v>2.5982638888888891E-3</v>
@@ -26029,7 +26038,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C34" t="s">
         <v>262</v>
@@ -26080,7 +26089,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
@@ -26100,7 +26109,7 @@
         <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D38" s="1">
         <v>2.7471064814814819E-3</v>
@@ -26114,7 +26123,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -26131,10 +26140,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D40" s="1">
         <v>2.7582175925925929E-3</v>
@@ -26151,7 +26160,7 @@
         <v>363</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
         <v>2.7613425925925926E-3</v>
@@ -26165,7 +26174,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -26224,7 +26233,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D48" s="1">
         <v>2.9038194444444445E-3</v>
@@ -26238,10 +26247,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C49" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D49" s="1">
         <v>2.9079861111111112E-3</v>
@@ -26255,7 +26264,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C50" t="s">
         <v>166</v>
@@ -26272,7 +26281,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C51" t="s">
         <v>73</v>
@@ -26306,7 +26315,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -26323,7 +26332,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D54" s="1">
         <v>2.9634259259259262E-3</v>
@@ -26337,7 +26346,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
@@ -26419,7 +26428,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D62" s="1">
         <v>3.0107638888888888E-3</v>
@@ -26433,7 +26442,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C63" t="s">
         <v>262</v>
@@ -26450,10 +26459,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D64" s="1">
         <v>3.0425925925925928E-3</v>
@@ -26467,7 +26476,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C65" t="s">
         <v>131</v>
@@ -26501,7 +26510,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
@@ -26518,16 +26527,16 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C68" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D68" s="1">
-        <v>3.1410879629629631E-3</v>
+        <v>3.1266203703703703E-3</v>
       </c>
       <c r="F68" s="4">
-        <v>44722</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -26535,16 +26544,16 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="C69" t="s">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="D69" s="1">
-        <v>3.154976851851852E-3</v>
+        <v>3.1410879629629631E-3</v>
       </c>
       <c r="F69" s="4">
-        <v>44332</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -26552,16 +26561,16 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="D70" s="1">
-        <v>3.1561342592592591E-3</v>
+        <v>3.154976851851852E-3</v>
       </c>
       <c r="F70" s="4">
-        <v>42909</v>
+        <v>44332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -26619,10 +26628,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C76" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D76" s="1">
         <v>3.0373842592592592E-3</v>
@@ -26704,7 +26713,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C81" t="s">
         <v>262</v>
@@ -26721,7 +26730,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
@@ -26738,7 +26747,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
         <v>262</v>
@@ -26755,7 +26764,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -26777,7 +26786,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -26786,7 +26795,7 @@
     <col min="2" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26796,7 +26805,7 @@
       </c>
       <c r="C1" s="4">
         <f>Samenvatting!C1</f>
-        <v>45142</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -26830,7 +26839,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
         <v>338</v>
@@ -26847,7 +26856,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D6" s="1">
         <v>5.5799768518518525E-3</v>
@@ -26864,7 +26873,7 @@
         <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D7" s="1">
         <v>5.5806712962962962E-3</v>
@@ -26878,10 +26887,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D8" s="1">
         <v>5.6019675925925924E-3</v>
@@ -26895,10 +26904,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D9" s="1">
         <v>5.6081018518518511E-3</v>
@@ -26912,10 +26921,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D10" s="1">
         <v>5.6224537037037033E-3</v>
@@ -26929,10 +26938,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D11" s="1">
         <v>5.6343750000000005E-3</v>
@@ -26946,7 +26955,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -26963,7 +26972,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -26983,10 +26992,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C14" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D14" s="1">
         <v>5.6569444444444445E-3</v>
@@ -27067,7 +27076,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C21" t="s">
         <v>338</v>
@@ -27084,7 +27093,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
         <v>262</v>
@@ -27101,7 +27110,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -27118,7 +27127,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C24" t="s">
         <v>383</v>
@@ -27135,10 +27144,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C25" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D25" s="1">
         <v>5.9106481481481475E-3</v>
@@ -27152,10 +27161,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C26" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D26" s="1">
         <v>5.9417824074074069E-3</v>
@@ -27169,7 +27178,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
         <v>338</v>
@@ -27186,7 +27195,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
         <v>338</v>
@@ -27236,10 +27245,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C33" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D33" s="1">
         <v>5.6923611111111107E-3</v>
@@ -27270,7 +27279,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C35" t="s">
         <v>418</v>
@@ -27321,7 +27330,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C38" t="s">
         <v>334</v>
@@ -27338,7 +27347,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C39" t="s">
         <v>338</v>
@@ -27372,10 +27381,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C41" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D41" s="1">
         <v>6.0540509259259254E-3</v>
@@ -27389,7 +27398,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
@@ -27439,7 +27448,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -27473,7 +27482,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D49" s="1">
         <v>6.13738425925926E-3</v>
@@ -27504,10 +27513,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C51" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D51" s="1">
         <v>6.2015046296296297E-3</v>
@@ -27521,7 +27530,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -27555,7 +27564,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -27572,16 +27581,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1">
-        <v>6.2592592592592596E-3</v>
+        <v>6.2472222222222226E-3</v>
       </c>
       <c r="F55" s="4">
-        <v>41789</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -27589,16 +27598,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C56" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="D56" s="1">
-        <v>6.2895833333333337E-3</v>
+        <v>6.2592592592592596E-3</v>
       </c>
       <c r="F56" s="4">
-        <v>44022</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -27634,7 +27643,7 @@
         <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D61" s="1">
         <v>6.5185185185185181E-3</v>
@@ -27649,7 +27658,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -27666,10 +27675,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C63" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D63" s="1">
         <v>6.5278935185185188E-3</v>
@@ -27683,10 +27692,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C64" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D64" s="1">
         <v>6.5495370370370369E-3</v>
@@ -27700,7 +27709,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D65" s="1">
         <v>6.5736111111111108E-3</v>
@@ -27714,10 +27723,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C66" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D66" s="1">
         <v>6.6312499999999991E-3</v>
@@ -27731,7 +27740,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C67" t="s">
         <v>262</v>
@@ -27748,7 +27757,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C68" t="s">
         <v>418</v>
@@ -27765,10 +27774,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C69" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D69" s="1">
         <v>6.7258101851851854E-3</v>
@@ -27782,10 +27791,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C70" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D70" s="1">
         <v>6.7445601851851859E-3</v>
@@ -27849,7 +27858,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C76" t="s">
         <v>338</v>
@@ -27866,10 +27875,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D77" s="1">
         <v>6.6792824074074081E-3</v>
@@ -27883,7 +27892,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
@@ -27900,10 +27909,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C79" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D79" s="1">
         <v>6.7562499999999992E-3</v>
@@ -27934,7 +27943,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C81" t="s">
         <v>163</v>
@@ -27951,10 +27960,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C82" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D82" s="1">
         <v>6.8328703703703711E-3</v>
@@ -27971,7 +27980,7 @@
         <v>440</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" s="1">
         <v>6.8438657407407406E-3</v>
@@ -27985,7 +27994,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C84" t="s">
         <v>418</v>
